--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Rspo3-Lrp6.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Rspo3-Lrp6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -83,9 +86,6 @@
   </si>
   <si>
     <t>Lrp6</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>M2</t>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>3.84911051206761</v>
+        <v>0.06937033333333333</v>
       </c>
       <c r="H2">
-        <v>3.84911051206761</v>
+        <v>0.208111</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.01708561286819356</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.01708561286819356</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.4405272346025</v>
+        <v>10.779612</v>
       </c>
       <c r="N2">
-        <v>10.4405272346025</v>
+        <v>32.338836</v>
       </c>
       <c r="O2">
-        <v>0.1298804929206324</v>
+        <v>0.1321092878737708</v>
       </c>
       <c r="P2">
-        <v>0.1298804929206324</v>
+        <v>0.1321092878737708</v>
       </c>
       <c r="Q2">
-        <v>40.18674313023666</v>
+        <v>0.7477852776439999</v>
       </c>
       <c r="R2">
-        <v>40.18674313023666</v>
+        <v>6.730067498796</v>
       </c>
       <c r="S2">
-        <v>0.1298804929206324</v>
+        <v>0.002257168148903985</v>
       </c>
       <c r="T2">
-        <v>0.1298804929206324</v>
+        <v>0.002257168148903985</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>3.84911051206761</v>
+        <v>0.06937033333333333</v>
       </c>
       <c r="H3">
-        <v>3.84911051206761</v>
+        <v>0.208111</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.01708561286819356</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.01708561286819356</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>38.5411116393123</v>
+        <v>38.54369466666667</v>
       </c>
       <c r="N3">
-        <v>38.5411116393123</v>
+        <v>115.631084</v>
       </c>
       <c r="O3">
-        <v>0.4794526622020335</v>
+        <v>0.4723713668393066</v>
       </c>
       <c r="P3">
-        <v>0.4794526622020335</v>
+        <v>0.4723713668393065</v>
       </c>
       <c r="Q3">
-        <v>148.3489979576483</v>
+        <v>2.673788946924889</v>
       </c>
       <c r="R3">
-        <v>148.3489979576483</v>
+        <v>24.064100522324</v>
       </c>
       <c r="S3">
-        <v>0.4794526622020335</v>
+        <v>0.008070754303835834</v>
       </c>
       <c r="T3">
-        <v>0.4794526622020335</v>
+        <v>0.008070754303835836</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,10 +646,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>24</v>
@@ -658,49 +658,49 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>3.84911051206761</v>
+        <v>0.06937033333333333</v>
       </c>
       <c r="H4">
-        <v>3.84911051206761</v>
+        <v>0.208111</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.01708561286819356</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.01708561286819356</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>12.3813090451176</v>
+        <v>12.62567333333333</v>
       </c>
       <c r="N4">
-        <v>12.3813090451176</v>
+        <v>37.87702</v>
       </c>
       <c r="O4">
-        <v>0.1540238807531623</v>
+        <v>0.1547336502458089</v>
       </c>
       <c r="P4">
-        <v>0.1540238807531623</v>
+        <v>0.1547336502458089</v>
       </c>
       <c r="Q4">
-        <v>47.65702679871994</v>
+        <v>0.875847167691111</v>
       </c>
       <c r="R4">
-        <v>47.65702679871994</v>
+        <v>7.88262450922</v>
       </c>
       <c r="S4">
-        <v>0.1540238807531623</v>
+        <v>0.002643719245782354</v>
       </c>
       <c r="T4">
-        <v>0.1540238807531623</v>
+        <v>0.002643719245782354</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,10 +708,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
@@ -720,49 +720,297 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>3.84911051206761</v>
+        <v>0.06937033333333333</v>
       </c>
       <c r="H5">
-        <v>3.84911051206761</v>
+        <v>0.208111</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.01708561286819356</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.01708561286819356</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>19.0226973755425</v>
+        <v>19.64719066666667</v>
       </c>
       <c r="N5">
-        <v>19.0226973755425</v>
+        <v>58.94157200000001</v>
       </c>
       <c r="O5">
-        <v>0.236642964124172</v>
+        <v>0.2407856950411137</v>
       </c>
       <c r="P5">
-        <v>0.236642964124172</v>
+        <v>0.2407856950411137</v>
       </c>
       <c r="Q5">
-        <v>73.22046443608157</v>
+        <v>1.362932165610222</v>
       </c>
       <c r="R5">
-        <v>73.22046443608157</v>
+        <v>12.266389490492</v>
       </c>
       <c r="S5">
-        <v>0.236642964124172</v>
+        <v>0.004113971169671382</v>
       </c>
       <c r="T5">
-        <v>0.236642964124172</v>
+        <v>0.004113971169671382</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>3.990790333333333</v>
+      </c>
+      <c r="H6">
+        <v>11.972371</v>
+      </c>
+      <c r="I6">
+        <v>0.9829143871318063</v>
+      </c>
+      <c r="J6">
+        <v>0.9829143871318063</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>10.779612</v>
+      </c>
+      <c r="N6">
+        <v>32.338836</v>
+      </c>
+      <c r="O6">
+        <v>0.1321092878737708</v>
+      </c>
+      <c r="P6">
+        <v>0.1321092878737708</v>
+      </c>
+      <c r="Q6">
+        <v>43.019171366684</v>
+      </c>
+      <c r="R6">
+        <v>387.172542300156</v>
+      </c>
+      <c r="S6">
+        <v>0.1298521197248668</v>
+      </c>
+      <c r="T6">
+        <v>0.1298521197248668</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>3.990790333333333</v>
+      </c>
+      <c r="H7">
+        <v>11.972371</v>
+      </c>
+      <c r="I7">
+        <v>0.9829143871318063</v>
+      </c>
+      <c r="J7">
+        <v>0.9829143871318063</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>38.54369466666667</v>
+      </c>
+      <c r="N7">
+        <v>115.631084</v>
+      </c>
+      <c r="O7">
+        <v>0.4723713668393066</v>
+      </c>
+      <c r="P7">
+        <v>0.4723713668393065</v>
+      </c>
+      <c r="Q7">
+        <v>153.8198040866849</v>
+      </c>
+      <c r="R7">
+        <v>1384.378236780164</v>
+      </c>
+      <c r="S7">
+        <v>0.4643006125354707</v>
+      </c>
+      <c r="T7">
+        <v>0.4643006125354707</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>3.990790333333333</v>
+      </c>
+      <c r="H8">
+        <v>11.972371</v>
+      </c>
+      <c r="I8">
+        <v>0.9829143871318063</v>
+      </c>
+      <c r="J8">
+        <v>0.9829143871318063</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>12.62567333333333</v>
+      </c>
+      <c r="N8">
+        <v>37.87702</v>
+      </c>
+      <c r="O8">
+        <v>0.1547336502458089</v>
+      </c>
+      <c r="P8">
+        <v>0.1547336502458089</v>
+      </c>
+      <c r="Q8">
+        <v>50.38641509049111</v>
+      </c>
+      <c r="R8">
+        <v>453.47773581442</v>
+      </c>
+      <c r="S8">
+        <v>0.1520899310000265</v>
+      </c>
+      <c r="T8">
+        <v>0.1520899310000265</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>3.990790333333333</v>
+      </c>
+      <c r="H9">
+        <v>11.972371</v>
+      </c>
+      <c r="I9">
+        <v>0.9829143871318063</v>
+      </c>
+      <c r="J9">
+        <v>0.9829143871318063</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>19.64719066666667</v>
+      </c>
+      <c r="N9">
+        <v>58.94157200000001</v>
+      </c>
+      <c r="O9">
+        <v>0.2407856950411137</v>
+      </c>
+      <c r="P9">
+        <v>0.2407856950411137</v>
+      </c>
+      <c r="Q9">
+        <v>78.40781858969024</v>
+      </c>
+      <c r="R9">
+        <v>705.670367307212</v>
+      </c>
+      <c r="S9">
+        <v>0.2366717238714423</v>
+      </c>
+      <c r="T9">
+        <v>0.2366717238714423</v>
       </c>
     </row>
   </sheetData>
